--- a/contratos/contratos-1-2021.xlsx
+++ b/contratos/contratos-1-2021.xlsx
@@ -1366,7 +1366,7 @@
     <t>MARCO JUAN CARLOS EVARISTO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1399,7 +1399,7 @@
     <t>MERALD S.R.L.</t>
   </si>
   <si>
-    <t>MONTICO, RICARDO</t>
+    <t>MONTICO. RICARDO</t>
   </si>
   <si>
     <t>MURATURE CESAR AUGUSTO</t>
@@ -1408,7 +1408,7 @@
     <t>PALMA RODOLFO GABRIEL</t>
   </si>
   <si>
-    <t>RONDONI, LUCIANO MATIAS</t>
+    <t>RONDONI. LUCIANO MATIAS</t>
   </si>
   <si>
     <t>S y C SOCIEDAD ANONIMA</t>
@@ -1615,7 +1615,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROJAS PEDRO MARTIN</t>
@@ -1654,13 +1654,13 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>OLIVERA, FLORENCIO</t>
+    <t>OLIVERA. FLORENCIO</t>
   </si>
   <si>
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BANCHIK AUTOMOTORES S.A.</t>
@@ -1675,7 +1675,7 @@
     <t>ROSARIO MAQUINAS VIALES S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1819,7 +1819,7 @@
     <t>M.L.  S.R.L.</t>
   </si>
   <si>
-    <t>ODIARD, OSCAR HERNAN</t>
+    <t>ODIARD. OSCAR HERNAN</t>
   </si>
   <si>
     <t>COCHERIA SCOLAMIERI S.R.L.</t>
@@ -2074,7 +2074,7 @@
     <t>TALLER ARDETI</t>
   </si>
   <si>
-    <t>PARRAVICINI VIRGINIA VANINA, VIRGINIA VANINA</t>
+    <t>PARRAVICINI VIRGINIA VANINA. VIRGINIA VANINA</t>
   </si>
   <si>
     <t xml:space="preserve">MATAFUEGOS VALORI </t>
@@ -2362,1063 +2362,1063 @@
     <t>27</t>
   </si>
   <si>
-    <t>8.985,00</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>21.900,00</t>
-  </si>
-  <si>
-    <t>6.900,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>1.495.960,00</t>
-  </si>
-  <si>
-    <t>12.927,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>19.140,00</t>
-  </si>
-  <si>
-    <t>13.510,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>3.090,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>7.388,63</t>
-  </si>
-  <si>
-    <t>1.642.317,29</t>
-  </si>
-  <si>
-    <t>50.880,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>12.202,94</t>
-  </si>
-  <si>
-    <t>8.893,00</t>
-  </si>
-  <si>
-    <t>197.700,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>22.400,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>260.280,00</t>
-  </si>
-  <si>
-    <t>211.083,45</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>1.305.974,80</t>
-  </si>
-  <si>
-    <t>130.236,02</t>
-  </si>
-  <si>
-    <t>12.090,80</t>
-  </si>
-  <si>
-    <t>2.203,20</t>
-  </si>
-  <si>
-    <t>320.638,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
-  </si>
-  <si>
-    <t>3.629.573,68</t>
-  </si>
-  <si>
-    <t>17.136,00</t>
-  </si>
-  <si>
-    <t>16.464,90</t>
-  </si>
-  <si>
-    <t>227.955,00</t>
-  </si>
-  <si>
-    <t>130.150,00</t>
-  </si>
-  <si>
-    <t>33.970,00</t>
-  </si>
-  <si>
-    <t>319.942,16</t>
-  </si>
-  <si>
-    <t>3.495,40</t>
-  </si>
-  <si>
-    <t>56.114,55</t>
-  </si>
-  <si>
-    <t>20.981,00</t>
-  </si>
-  <si>
-    <t>96.600,00</t>
-  </si>
-  <si>
-    <t>156.881,16</t>
-  </si>
-  <si>
-    <t>27.500,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>11.780,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>1.520,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>15.525,00</t>
-  </si>
-  <si>
-    <t>1.400,63</t>
-  </si>
-  <si>
-    <t>5.380,00</t>
-  </si>
-  <si>
-    <t>273,90</t>
-  </si>
-  <si>
-    <t>48.500,00</t>
-  </si>
-  <si>
-    <t>813.961,99</t>
-  </si>
-  <si>
-    <t>741.780,00</t>
-  </si>
-  <si>
-    <t>8.460,00</t>
-  </si>
-  <si>
-    <t>22.125,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>9.093,00</t>
-  </si>
-  <si>
-    <t>77.536,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>6.632,01</t>
-  </si>
-  <si>
-    <t>889.900,00</t>
-  </si>
-  <si>
-    <t>1.075.797,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>35.153,74</t>
-  </si>
-  <si>
-    <t>30.379,00</t>
-  </si>
-  <si>
-    <t>23.698,72</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>12.100,00</t>
-  </si>
-  <si>
-    <t>9.905,46</t>
-  </si>
-  <si>
-    <t>3.413,20</t>
-  </si>
-  <si>
-    <t>20.408,16</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>384.088,55</t>
-  </si>
-  <si>
-    <t>9.980,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>87.210,07</t>
-  </si>
-  <si>
-    <t>989,95</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>2.766,00</t>
-  </si>
-  <si>
-    <t>74.912,32</t>
-  </si>
-  <si>
-    <t>31.292,34</t>
-  </si>
-  <si>
-    <t>61.661,03</t>
-  </si>
-  <si>
-    <t>107.544,80</t>
-  </si>
-  <si>
-    <t>36.726,10</t>
-  </si>
-  <si>
-    <t>233.052,20</t>
-  </si>
-  <si>
-    <t>12.751,32</t>
-  </si>
-  <si>
-    <t>29.778,00</t>
-  </si>
-  <si>
-    <t>629,80</t>
-  </si>
-  <si>
-    <t>4.830,00</t>
-  </si>
-  <si>
-    <t>5.742,65</t>
-  </si>
-  <si>
-    <t>106.564,70</t>
-  </si>
-  <si>
-    <t>23.852,88</t>
-  </si>
-  <si>
-    <t>20.350,96</t>
-  </si>
-  <si>
-    <t>1.422,21</t>
-  </si>
-  <si>
-    <t>36.500,00</t>
-  </si>
-  <si>
-    <t>5.827,62</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>58.184,41</t>
-  </si>
-  <si>
-    <t>37.800,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>19.430,00</t>
-  </si>
-  <si>
-    <t>31.014,75</t>
-  </si>
-  <si>
-    <t>62.660,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>10.750,00</t>
-  </si>
-  <si>
-    <t>20.660,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>2.306,51</t>
-  </si>
-  <si>
-    <t>14.877,80</t>
-  </si>
-  <si>
-    <t>11.880,00</t>
-  </si>
-  <si>
-    <t>10.759,15</t>
-  </si>
-  <si>
-    <t>1.320,65</t>
-  </si>
-  <si>
-    <t>8.742,72</t>
-  </si>
-  <si>
-    <t>11.264,00</t>
-  </si>
-  <si>
-    <t>12.800,50</t>
-  </si>
-  <si>
-    <t>280.005,00</t>
-  </si>
-  <si>
-    <t>25.830,00</t>
-  </si>
-  <si>
-    <t>93.133,52</t>
-  </si>
-  <si>
-    <t>24.960,00</t>
-  </si>
-  <si>
-    <t>187.200,00</t>
-  </si>
-  <si>
-    <t>786,50</t>
-  </si>
-  <si>
-    <t>69.500,00</t>
-  </si>
-  <si>
-    <t>192.800,00</t>
-  </si>
-  <si>
-    <t>117.900,00</t>
-  </si>
-  <si>
-    <t>342.140,00</t>
-  </si>
-  <si>
-    <t>398.700,00</t>
-  </si>
-  <si>
-    <t>253.275,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>741,90</t>
-  </si>
-  <si>
-    <t>9.015,00</t>
-  </si>
-  <si>
-    <t>7.886,00</t>
-  </si>
-  <si>
-    <t>22.795,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>577.518,00</t>
-  </si>
-  <si>
-    <t>81.479,84</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>67.037,32</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>10.600,00</t>
-  </si>
-  <si>
-    <t>7.143,31</t>
-  </si>
-  <si>
-    <t>34,20</t>
-  </si>
-  <si>
-    <t>21,78</t>
-  </si>
-  <si>
-    <t>12.650,00</t>
-  </si>
-  <si>
-    <t>182.406,32</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>146.850,00</t>
-  </si>
-  <si>
-    <t>84.780,14</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>7.590,81</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>5.349,00</t>
-  </si>
-  <si>
-    <t>565,00</t>
-  </si>
-  <si>
-    <t>44.700,00</t>
-  </si>
-  <si>
-    <t>136.661,84</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>45.780,00</t>
-  </si>
-  <si>
-    <t>33.600,00</t>
-  </si>
-  <si>
-    <t>1.194,00</t>
-  </si>
-  <si>
-    <t>1.770,94</t>
-  </si>
-  <si>
-    <t>40.800,00</t>
-  </si>
-  <si>
-    <t>25.250,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>58.138,90</t>
-  </si>
-  <si>
-    <t>1.201,95</t>
-  </si>
-  <si>
-    <t>86.523,64</t>
-  </si>
-  <si>
-    <t>10.766,00</t>
-  </si>
-  <si>
-    <t>111.410,40</t>
-  </si>
-  <si>
-    <t>14.115,00</t>
-  </si>
-  <si>
-    <t>23.992,00</t>
-  </si>
-  <si>
-    <t>20.450,00</t>
-  </si>
-  <si>
-    <t>3.405,00</t>
-  </si>
-  <si>
-    <t>4.410,96</t>
-  </si>
-  <si>
-    <t>250.656,20</t>
-  </si>
-  <si>
-    <t>22.977,90</t>
-  </si>
-  <si>
-    <t>46.200,90</t>
-  </si>
-  <si>
-    <t>10.710,00</t>
-  </si>
-  <si>
-    <t>9.035,00</t>
-  </si>
-  <si>
-    <t>3.386,10</t>
-  </si>
-  <si>
-    <t>812.500,00</t>
-  </si>
-  <si>
-    <t>3.173,00</t>
-  </si>
-  <si>
-    <t>76.269,00</t>
-  </si>
-  <si>
-    <t>360,28</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>201.860,00</t>
-  </si>
-  <si>
-    <t>8.405,00</t>
-  </si>
-  <si>
-    <t>7.878,00</t>
-  </si>
-  <si>
-    <t>18.795,00</t>
-  </si>
-  <si>
-    <t>8.700,00</t>
-  </si>
-  <si>
-    <t>12.600,00</t>
-  </si>
-  <si>
-    <t>50.215,00</t>
-  </si>
-  <si>
-    <t>6.985,99</t>
-  </si>
-  <si>
-    <t>108,40</t>
-  </si>
-  <si>
-    <t>19.172,51</t>
-  </si>
-  <si>
-    <t>51.336,00</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>97.700,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>9.500,00</t>
-  </si>
-  <si>
-    <t>47.000,00</t>
-  </si>
-  <si>
-    <t>107.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>1.162,70</t>
-  </si>
-  <si>
-    <t>26.161,94</t>
-  </si>
-  <si>
-    <t>21.774,00</t>
-  </si>
-  <si>
-    <t>648,00</t>
-  </si>
-  <si>
-    <t>159.275,68</t>
-  </si>
-  <si>
-    <t>43.138,00</t>
-  </si>
-  <si>
-    <t>4.797,71</t>
-  </si>
-  <si>
-    <t>35.089,00</t>
-  </si>
-  <si>
-    <t>4.692,18</t>
-  </si>
-  <si>
-    <t>41.575,00</t>
-  </si>
-  <si>
-    <t>2.540,00</t>
-  </si>
-  <si>
-    <t>10.551.641,40</t>
-  </si>
-  <si>
-    <t>127.500,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>10.752,50</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>41.740,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>103.923,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>25.800,00</t>
-  </si>
-  <si>
-    <t>10.140,00</t>
-  </si>
-  <si>
-    <t>46.410,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>102.700,00</t>
-  </si>
-  <si>
-    <t>21.500,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>91.000,00</t>
-  </si>
-  <si>
-    <t>175.300,00</t>
-  </si>
-  <si>
-    <t>142.400,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>6.850,00</t>
-  </si>
-  <si>
-    <t>7.300,00</t>
-  </si>
-  <si>
-    <t>46.000,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>28.800,00</t>
-  </si>
-  <si>
-    <t>498.000,00</t>
-  </si>
-  <si>
-    <t>10.890,00</t>
-  </si>
-  <si>
-    <t>533,64</t>
-  </si>
-  <si>
-    <t>61.800,00</t>
-  </si>
-  <si>
-    <t>86.650,00</t>
-  </si>
-  <si>
-    <t>15.975,00</t>
-  </si>
-  <si>
-    <t>90.730,00</t>
-  </si>
-  <si>
-    <t>62.840,00</t>
-  </si>
-  <si>
-    <t>15.889,95</t>
-  </si>
-  <si>
-    <t>1.124,42</t>
-  </si>
-  <si>
-    <t>1.040,70</t>
-  </si>
-  <si>
-    <t>9.750,00</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>75.350,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>64.909,40</t>
-  </si>
-  <si>
-    <t>12.574,00</t>
-  </si>
-  <si>
-    <t>710,29</t>
-  </si>
-  <si>
-    <t>25.510,00</t>
-  </si>
-  <si>
-    <t>256.907,96</t>
-  </si>
-  <si>
-    <t>44.045,00</t>
-  </si>
-  <si>
-    <t>50.548,52</t>
-  </si>
-  <si>
-    <t>52.620,00</t>
-  </si>
-  <si>
-    <t>45.200,00</t>
-  </si>
-  <si>
-    <t>9.070,00</t>
-  </si>
-  <si>
-    <t>2.023,02</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>11.619,70</t>
-  </si>
-  <si>
-    <t>14.664,22</t>
-  </si>
-  <si>
-    <t>18.329,71</t>
-  </si>
-  <si>
-    <t>10.412,80</t>
-  </si>
-  <si>
-    <t>12.390,00</t>
-  </si>
-  <si>
-    <t>8.350,50</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>35.800,00</t>
-  </si>
-  <si>
-    <t>56.664,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>9.840,00</t>
-  </si>
-  <si>
-    <t>2.799,86</t>
-  </si>
-  <si>
-    <t>1.256,00</t>
-  </si>
-  <si>
-    <t>38.820,00</t>
-  </si>
-  <si>
-    <t>60.679,46</t>
-  </si>
-  <si>
-    <t>85.500,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>99.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>2.030,55</t>
-  </si>
-  <si>
-    <t>20.280,00</t>
-  </si>
-  <si>
-    <t>23.500,00</t>
-  </si>
-  <si>
-    <t>151.600,00</t>
-  </si>
-  <si>
-    <t>120.840,00</t>
-  </si>
-  <si>
-    <t>298.440,00</t>
-  </si>
-  <si>
-    <t>23.863,40</t>
-  </si>
-  <si>
-    <t>736.000,00</t>
-  </si>
-  <si>
-    <t>11.349.948,30</t>
-  </si>
-  <si>
-    <t>353.077,89</t>
-  </si>
-  <si>
-    <t>441.860,00</t>
-  </si>
-  <si>
-    <t>384.980,00</t>
-  </si>
-  <si>
-    <t>356.600,00</t>
-  </si>
-  <si>
-    <t>337.000,00</t>
-  </si>
-  <si>
-    <t>439.340,00</t>
-  </si>
-  <si>
-    <t>643.000,00</t>
-  </si>
-  <si>
-    <t>883.700,00</t>
-  </si>
-  <si>
-    <t>1.003.000,00</t>
-  </si>
-  <si>
-    <t>367.800,00</t>
-  </si>
-  <si>
-    <t>674.000,00</t>
-  </si>
-  <si>
-    <t>709.200,00</t>
-  </si>
-  <si>
-    <t>664.000,00</t>
-  </si>
-  <si>
-    <t>993.520,00</t>
-  </si>
-  <si>
-    <t>652.240,00</t>
-  </si>
-  <si>
-    <t>982.106,00</t>
-  </si>
-  <si>
-    <t>367.283,00</t>
-  </si>
-  <si>
-    <t>1.119.585,00</t>
-  </si>
-  <si>
-    <t>65.810,00</t>
-  </si>
-  <si>
-    <t>56.550,00</t>
-  </si>
-  <si>
-    <t>1.522.226,33</t>
-  </si>
-  <si>
-    <t>43.525,74</t>
-  </si>
-  <si>
-    <t>3.660.921,11</t>
-  </si>
-  <si>
-    <t>16.547.000,00</t>
-  </si>
-  <si>
-    <t>25.234,00</t>
-  </si>
-  <si>
-    <t>1.951.169,51</t>
-  </si>
-  <si>
-    <t>124.000,00</t>
-  </si>
-  <si>
-    <t>2.346.076,96</t>
-  </si>
-  <si>
-    <t>394.000,00</t>
-  </si>
-  <si>
-    <t>24.750,00</t>
-  </si>
-  <si>
-    <t>161.000,00</t>
-  </si>
-  <si>
-    <t>18.900,00</t>
-  </si>
-  <si>
-    <t>363.000,00</t>
-  </si>
-  <si>
-    <t>3.378,42</t>
-  </si>
-  <si>
-    <t>332.146,50</t>
-  </si>
-  <si>
-    <t>33.174,23</t>
-  </si>
-  <si>
-    <t>45.250,00</t>
-  </si>
-  <si>
-    <t>76.680,00</t>
-  </si>
-  <si>
-    <t>32.910,00</t>
+    <t>8985.00</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>21900.00</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>1495960.00</t>
+  </si>
+  <si>
+    <t>12927.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>19140.00</t>
+  </si>
+  <si>
+    <t>13510.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>3090.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>7388.63</t>
+  </si>
+  <si>
+    <t>1642317.29</t>
+  </si>
+  <si>
+    <t>50880.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>12202.94</t>
+  </si>
+  <si>
+    <t>8893.00</t>
+  </si>
+  <si>
+    <t>197700.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>22400.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>260280.00</t>
+  </si>
+  <si>
+    <t>211083.45</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1305974.80</t>
+  </si>
+  <si>
+    <t>130236.02</t>
+  </si>
+  <si>
+    <t>12090.80</t>
+  </si>
+  <si>
+    <t>2203.20</t>
+  </si>
+  <si>
+    <t>320638.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
+  </si>
+  <si>
+    <t>3629573.68</t>
+  </si>
+  <si>
+    <t>17136.00</t>
+  </si>
+  <si>
+    <t>16464.90</t>
+  </si>
+  <si>
+    <t>227955.00</t>
+  </si>
+  <si>
+    <t>130150.00</t>
+  </si>
+  <si>
+    <t>33970.00</t>
+  </si>
+  <si>
+    <t>319942.16</t>
+  </si>
+  <si>
+    <t>3495.40</t>
+  </si>
+  <si>
+    <t>56114.55</t>
+  </si>
+  <si>
+    <t>20981.00</t>
+  </si>
+  <si>
+    <t>96600.00</t>
+  </si>
+  <si>
+    <t>156881.16</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>11780.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>1520.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>15525.00</t>
+  </si>
+  <si>
+    <t>1400.63</t>
+  </si>
+  <si>
+    <t>5380.00</t>
+  </si>
+  <si>
+    <t>273.90</t>
+  </si>
+  <si>
+    <t>48500.00</t>
+  </si>
+  <si>
+    <t>813961.99</t>
+  </si>
+  <si>
+    <t>741780.00</t>
+  </si>
+  <si>
+    <t>8460.00</t>
+  </si>
+  <si>
+    <t>22125.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>9093.00</t>
+  </si>
+  <si>
+    <t>77536.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>6632.01</t>
+  </si>
+  <si>
+    <t>889900.00</t>
+  </si>
+  <si>
+    <t>1075797.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>35153.74</t>
+  </si>
+  <si>
+    <t>30379.00</t>
+  </si>
+  <si>
+    <t>23698.72</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>12100.00</t>
+  </si>
+  <si>
+    <t>9905.46</t>
+  </si>
+  <si>
+    <t>3413.20</t>
+  </si>
+  <si>
+    <t>20408.16</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>384088.55</t>
+  </si>
+  <si>
+    <t>9980.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>87210.07</t>
+  </si>
+  <si>
+    <t>989.95</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>2766.00</t>
+  </si>
+  <si>
+    <t>74912.32</t>
+  </si>
+  <si>
+    <t>31292.34</t>
+  </si>
+  <si>
+    <t>61661.03</t>
+  </si>
+  <si>
+    <t>107544.80</t>
+  </si>
+  <si>
+    <t>36726.10</t>
+  </si>
+  <si>
+    <t>233052.20</t>
+  </si>
+  <si>
+    <t>12751.32</t>
+  </si>
+  <si>
+    <t>29778.00</t>
+  </si>
+  <si>
+    <t>629.80</t>
+  </si>
+  <si>
+    <t>4830.00</t>
+  </si>
+  <si>
+    <t>5742.65</t>
+  </si>
+  <si>
+    <t>106564.70</t>
+  </si>
+  <si>
+    <t>23852.88</t>
+  </si>
+  <si>
+    <t>20350.96</t>
+  </si>
+  <si>
+    <t>1422.21</t>
+  </si>
+  <si>
+    <t>36500.00</t>
+  </si>
+  <si>
+    <t>5827.62</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>58184.41</t>
+  </si>
+  <si>
+    <t>37800.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>19430.00</t>
+  </si>
+  <si>
+    <t>31014.75</t>
+  </si>
+  <si>
+    <t>62660.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>10750.00</t>
+  </si>
+  <si>
+    <t>20660.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>2306.51</t>
+  </si>
+  <si>
+    <t>14877.80</t>
+  </si>
+  <si>
+    <t>11880.00</t>
+  </si>
+  <si>
+    <t>10759.15</t>
+  </si>
+  <si>
+    <t>1320.65</t>
+  </si>
+  <si>
+    <t>8742.72</t>
+  </si>
+  <si>
+    <t>11264.00</t>
+  </si>
+  <si>
+    <t>12800.50</t>
+  </si>
+  <si>
+    <t>280005.00</t>
+  </si>
+  <si>
+    <t>25830.00</t>
+  </si>
+  <si>
+    <t>93133.52</t>
+  </si>
+  <si>
+    <t>24960.00</t>
+  </si>
+  <si>
+    <t>187200.00</t>
+  </si>
+  <si>
+    <t>786.50</t>
+  </si>
+  <si>
+    <t>69500.00</t>
+  </si>
+  <si>
+    <t>192800.00</t>
+  </si>
+  <si>
+    <t>117900.00</t>
+  </si>
+  <si>
+    <t>342140.00</t>
+  </si>
+  <si>
+    <t>398700.00</t>
+  </si>
+  <si>
+    <t>253275.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>741.90</t>
+  </si>
+  <si>
+    <t>9015.00</t>
+  </si>
+  <si>
+    <t>7886.00</t>
+  </si>
+  <si>
+    <t>22795.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>577518.00</t>
+  </si>
+  <si>
+    <t>81479.84</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>67037.32</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>10600.00</t>
+  </si>
+  <si>
+    <t>7143.31</t>
+  </si>
+  <si>
+    <t>34.20</t>
+  </si>
+  <si>
+    <t>21.78</t>
+  </si>
+  <si>
+    <t>12650.00</t>
+  </si>
+  <si>
+    <t>182406.32</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>146850.00</t>
+  </si>
+  <si>
+    <t>84780.14</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>7590.81</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>5349.00</t>
+  </si>
+  <si>
+    <t>565.00</t>
+  </si>
+  <si>
+    <t>44700.00</t>
+  </si>
+  <si>
+    <t>136661.84</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>45780.00</t>
+  </si>
+  <si>
+    <t>33600.00</t>
+  </si>
+  <si>
+    <t>1194.00</t>
+  </si>
+  <si>
+    <t>1770.94</t>
+  </si>
+  <si>
+    <t>40800.00</t>
+  </si>
+  <si>
+    <t>25250.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>58138.90</t>
+  </si>
+  <si>
+    <t>1201.95</t>
+  </si>
+  <si>
+    <t>86523.64</t>
+  </si>
+  <si>
+    <t>10766.00</t>
+  </si>
+  <si>
+    <t>111410.40</t>
+  </si>
+  <si>
+    <t>14115.00</t>
+  </si>
+  <si>
+    <t>23992.00</t>
+  </si>
+  <si>
+    <t>20450.00</t>
+  </si>
+  <si>
+    <t>3405.00</t>
+  </si>
+  <si>
+    <t>4410.96</t>
+  </si>
+  <si>
+    <t>250656.20</t>
+  </si>
+  <si>
+    <t>22977.90</t>
+  </si>
+  <si>
+    <t>46200.90</t>
+  </si>
+  <si>
+    <t>10710.00</t>
+  </si>
+  <si>
+    <t>9035.00</t>
+  </si>
+  <si>
+    <t>3386.10</t>
+  </si>
+  <si>
+    <t>812500.00</t>
+  </si>
+  <si>
+    <t>3173.00</t>
+  </si>
+  <si>
+    <t>76269.00</t>
+  </si>
+  <si>
+    <t>360.28</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>201860.00</t>
+  </si>
+  <si>
+    <t>8405.00</t>
+  </si>
+  <si>
+    <t>7878.00</t>
+  </si>
+  <si>
+    <t>18795.00</t>
+  </si>
+  <si>
+    <t>8700.00</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>50215.00</t>
+  </si>
+  <si>
+    <t>6985.99</t>
+  </si>
+  <si>
+    <t>108.40</t>
+  </si>
+  <si>
+    <t>19172.51</t>
+  </si>
+  <si>
+    <t>51336.00</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>97700.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>9500.00</t>
+  </si>
+  <si>
+    <t>47000.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>1162.70</t>
+  </si>
+  <si>
+    <t>26161.94</t>
+  </si>
+  <si>
+    <t>21774.00</t>
+  </si>
+  <si>
+    <t>648.00</t>
+  </si>
+  <si>
+    <t>159275.68</t>
+  </si>
+  <si>
+    <t>43138.00</t>
+  </si>
+  <si>
+    <t>4797.71</t>
+  </si>
+  <si>
+    <t>35089.00</t>
+  </si>
+  <si>
+    <t>4692.18</t>
+  </si>
+  <si>
+    <t>41575.00</t>
+  </si>
+  <si>
+    <t>2540.00</t>
+  </si>
+  <si>
+    <t>10551641.40</t>
+  </si>
+  <si>
+    <t>127500.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>10752.50</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>41740.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>103923.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>25800.00</t>
+  </si>
+  <si>
+    <t>10140.00</t>
+  </si>
+  <si>
+    <t>46410.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>102700.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>91000.00</t>
+  </si>
+  <si>
+    <t>175300.00</t>
+  </si>
+  <si>
+    <t>142400.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>6850.00</t>
+  </si>
+  <si>
+    <t>7300.00</t>
+  </si>
+  <si>
+    <t>46000.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>28800.00</t>
+  </si>
+  <si>
+    <t>498000.00</t>
+  </si>
+  <si>
+    <t>10890.00</t>
+  </si>
+  <si>
+    <t>533.64</t>
+  </si>
+  <si>
+    <t>61800.00</t>
+  </si>
+  <si>
+    <t>86650.00</t>
+  </si>
+  <si>
+    <t>15975.00</t>
+  </si>
+  <si>
+    <t>90730.00</t>
+  </si>
+  <si>
+    <t>62840.00</t>
+  </si>
+  <si>
+    <t>15889.95</t>
+  </si>
+  <si>
+    <t>1124.42</t>
+  </si>
+  <si>
+    <t>1040.70</t>
+  </si>
+  <si>
+    <t>9750.00</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>75350.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>64909.40</t>
+  </si>
+  <si>
+    <t>12574.00</t>
+  </si>
+  <si>
+    <t>710.29</t>
+  </si>
+  <si>
+    <t>25510.00</t>
+  </si>
+  <si>
+    <t>256907.96</t>
+  </si>
+  <si>
+    <t>44045.00</t>
+  </si>
+  <si>
+    <t>50548.52</t>
+  </si>
+  <si>
+    <t>52620.00</t>
+  </si>
+  <si>
+    <t>45200.00</t>
+  </si>
+  <si>
+    <t>9070.00</t>
+  </si>
+  <si>
+    <t>2023.02</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>11619.70</t>
+  </si>
+  <si>
+    <t>14664.22</t>
+  </si>
+  <si>
+    <t>18329.71</t>
+  </si>
+  <si>
+    <t>10412.80</t>
+  </si>
+  <si>
+    <t>12390.00</t>
+  </si>
+  <si>
+    <t>8350.50</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>35800.00</t>
+  </si>
+  <si>
+    <t>56664.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>9840.00</t>
+  </si>
+  <si>
+    <t>2799.86</t>
+  </si>
+  <si>
+    <t>1256.00</t>
+  </si>
+  <si>
+    <t>38820.00</t>
+  </si>
+  <si>
+    <t>60679.46</t>
+  </si>
+  <si>
+    <t>85500.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>99000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>2030.55</t>
+  </si>
+  <si>
+    <t>20280.00</t>
+  </si>
+  <si>
+    <t>23500.00</t>
+  </si>
+  <si>
+    <t>151600.00</t>
+  </si>
+  <si>
+    <t>120840.00</t>
+  </si>
+  <si>
+    <t>298440.00</t>
+  </si>
+  <si>
+    <t>23863.40</t>
+  </si>
+  <si>
+    <t>736000.00</t>
+  </si>
+  <si>
+    <t>11349948.30</t>
+  </si>
+  <si>
+    <t>353077.89</t>
+  </si>
+  <si>
+    <t>441860.00</t>
+  </si>
+  <si>
+    <t>384980.00</t>
+  </si>
+  <si>
+    <t>356600.00</t>
+  </si>
+  <si>
+    <t>337000.00</t>
+  </si>
+  <si>
+    <t>439340.00</t>
+  </si>
+  <si>
+    <t>643000.00</t>
+  </si>
+  <si>
+    <t>883700.00</t>
+  </si>
+  <si>
+    <t>1003000.00</t>
+  </si>
+  <si>
+    <t>367800.00</t>
+  </si>
+  <si>
+    <t>674000.00</t>
+  </si>
+  <si>
+    <t>709200.00</t>
+  </si>
+  <si>
+    <t>664000.00</t>
+  </si>
+  <si>
+    <t>993520.00</t>
+  </si>
+  <si>
+    <t>652240.00</t>
+  </si>
+  <si>
+    <t>982106.00</t>
+  </si>
+  <si>
+    <t>367283.00</t>
+  </si>
+  <si>
+    <t>1119585.00</t>
+  </si>
+  <si>
+    <t>65810.00</t>
+  </si>
+  <si>
+    <t>56550.00</t>
+  </si>
+  <si>
+    <t>1522226.33</t>
+  </si>
+  <si>
+    <t>43525.74</t>
+  </si>
+  <si>
+    <t>3660921.11</t>
+  </si>
+  <si>
+    <t>16547000.00</t>
+  </si>
+  <si>
+    <t>25234.00</t>
+  </si>
+  <si>
+    <t>1951169.51</t>
+  </si>
+  <si>
+    <t>124000.00</t>
+  </si>
+  <si>
+    <t>2346076.96</t>
+  </si>
+  <si>
+    <t>394000.00</t>
+  </si>
+  <si>
+    <t>24750.00</t>
+  </si>
+  <si>
+    <t>161000.00</t>
+  </si>
+  <si>
+    <t>18900.00</t>
+  </si>
+  <si>
+    <t>363000.00</t>
+  </si>
+  <si>
+    <t>3378.42</t>
+  </si>
+  <si>
+    <t>332146.50</t>
+  </si>
+  <si>
+    <t>33174.23</t>
+  </si>
+  <si>
+    <t>45250.00</t>
+  </si>
+  <si>
+    <t>76680.00</t>
+  </si>
+  <si>
+    <t>32910.00</t>
   </si>
 </sst>
 </file>
